--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4234750373145</v>
+        <v>26.42347503731436</v>
       </c>
       <c r="C2">
-        <v>19.99886229031786</v>
+        <v>19.99886229031767</v>
       </c>
       <c r="D2">
-        <v>9.388288595591627</v>
+        <v>9.388288595591575</v>
       </c>
       <c r="E2">
-        <v>30.77377411776597</v>
+        <v>30.77377411776577</v>
       </c>
       <c r="F2">
-        <v>63.56182861480239</v>
+        <v>63.56182861480191</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,25 +450,31 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.38484812770647</v>
+        <v>24.38484812770633</v>
       </c>
       <c r="C3">
-        <v>18.46397124672549</v>
+        <v>18.46397124672529</v>
       </c>
       <c r="D3">
-        <v>8.849519637809431</v>
+        <v>8.849519637809502</v>
       </c>
       <c r="E3">
-        <v>28.31226926357537</v>
+        <v>28.31226926357524</v>
       </c>
       <c r="F3">
-        <v>59.19036081192131</v>
+        <v>59.19036081192104</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -479,25 +491,31 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08887446149555</v>
+        <v>23.08887446149547</v>
       </c>
       <c r="C4">
-        <v>17.49128058524141</v>
+        <v>17.49128058524111</v>
       </c>
       <c r="D4">
-        <v>8.517092694060617</v>
+        <v>8.517092694060567</v>
       </c>
       <c r="E4">
-        <v>26.76069239565595</v>
+        <v>26.76069239565584</v>
       </c>
       <c r="F4">
-        <v>56.45050333521705</v>
+        <v>56.45050333521679</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -514,25 +532,31 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.5488165671451</v>
+        <v>22.54881656714493</v>
       </c>
       <c r="C5">
-        <v>17.08658420349867</v>
+        <v>17.08658420349837</v>
       </c>
       <c r="D5">
-        <v>8.381070846560407</v>
+        <v>8.381070846560384</v>
       </c>
       <c r="E5">
-        <v>26.11693298543749</v>
+        <v>26.11693298543736</v>
       </c>
       <c r="F5">
-        <v>55.31894217127872</v>
+        <v>55.31894217127837</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -549,25 +573,31 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.45839791254524</v>
+        <v>22.45839791254531</v>
       </c>
       <c r="C6">
-        <v>17.01886368656673</v>
+        <v>17.01886368656685</v>
       </c>
       <c r="D6">
-        <v>8.358447793206549</v>
+        <v>8.358447793206556</v>
       </c>
       <c r="E6">
-        <v>26.00930803074004</v>
+        <v>26.00930803074012</v>
       </c>
       <c r="F6">
-        <v>55.13011678721339</v>
+        <v>55.13011678721328</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -584,25 +614,31 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08164037263802</v>
+        <v>23.08164037263819</v>
       </c>
       <c r="C7">
-        <v>17.48585724081155</v>
+        <v>17.48585724081182</v>
       </c>
       <c r="D7">
-        <v>8.515260655957015</v>
+        <v>8.515260655957157</v>
       </c>
       <c r="E7">
-        <v>26.75205855939405</v>
+        <v>26.7520585593942</v>
       </c>
       <c r="F7">
-        <v>56.43530467096087</v>
+        <v>56.43530467096149</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -619,25 +655,31 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.72920989287836</v>
+        <v>25.72920989287808</v>
       </c>
       <c r="C8">
-        <v>19.47544971045623</v>
+        <v>19.47544971045633</v>
       </c>
       <c r="D8">
-        <v>9.202748790060806</v>
+        <v>9.202748790060911</v>
       </c>
       <c r="E8">
-        <v>29.93249018775551</v>
+        <v>29.93249018775536</v>
       </c>
       <c r="F8">
-        <v>62.06535951554753</v>
+        <v>62.06535951554755</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -654,25 +696,31 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.6151209524473</v>
+        <v>30.61512095244739</v>
       </c>
       <c r="C9">
-        <v>23.17640264765306</v>
+        <v>23.17640264765298</v>
       </c>
       <c r="D9">
-        <v>10.54862083012398</v>
+        <v>10.5486208301241</v>
       </c>
       <c r="E9">
-        <v>35.92794154082256</v>
+        <v>35.92794154082264</v>
       </c>
       <c r="F9">
-        <v>72.75185367649347</v>
+        <v>72.75185367649415</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -689,25 +737,31 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.10049648182896</v>
+        <v>34.10049648182904</v>
       </c>
       <c r="C10">
-        <v>25.84552666713169</v>
+        <v>25.84552666713162</v>
       </c>
       <c r="D10">
-        <v>11.55880171813866</v>
+        <v>11.55880171813879</v>
       </c>
       <c r="E10">
-        <v>40.33092135322983</v>
+        <v>40.3309213532299</v>
       </c>
       <c r="F10">
-        <v>80.76514898864107</v>
+        <v>80.76514898864144</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -724,25 +778,31 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.69037928621933</v>
+        <v>35.69037928621959</v>
       </c>
       <c r="C11">
-        <v>27.07283950664322</v>
+        <v>27.07283950664337</v>
       </c>
       <c r="D11">
-        <v>12.03142000939431</v>
+        <v>12.03142000939438</v>
       </c>
       <c r="E11">
-        <v>42.38294602322394</v>
+        <v>42.38294602322421</v>
       </c>
       <c r="F11">
-        <v>84.44266199602254</v>
+        <v>84.44266199602295</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -759,25 +819,31 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.29636231448981</v>
+        <v>36.29636231448992</v>
       </c>
       <c r="C12">
-        <v>27.54243372989783</v>
+        <v>27.54243372989772</v>
       </c>
       <c r="D12">
-        <v>12.21335939014254</v>
+        <v>12.2133593901425</v>
       </c>
       <c r="E12">
-        <v>43.17331847737465</v>
+        <v>43.17331847737456</v>
       </c>
       <c r="F12">
-        <v>85.84726717030948</v>
+        <v>85.84726717030942</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -794,25 +860,31 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.16561187650134</v>
+        <v>36.16561187650129</v>
       </c>
       <c r="C13">
-        <v>27.44102345508451</v>
+        <v>27.4410234550847</v>
       </c>
       <c r="D13">
-        <v>12.17402115518748</v>
+        <v>12.17402115518737</v>
       </c>
       <c r="E13">
-        <v>43.00237729302152</v>
+        <v>43.00237729302142</v>
       </c>
       <c r="F13">
-        <v>85.54407671466608</v>
+        <v>85.54407671466595</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -829,25 +901,31 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.74013170463823</v>
+        <v>35.74013170463808</v>
       </c>
       <c r="C14">
-        <v>27.11135533341069</v>
+        <v>27.1113553334105</v>
       </c>
       <c r="D14">
-        <v>12.04632091510747</v>
+        <v>12.0463209151075</v>
       </c>
       <c r="E14">
         <v>42.44765844908599</v>
       </c>
       <c r="F14">
-        <v>84.55792630318818</v>
+        <v>84.55792630318814</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -864,25 +942,31 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.48014364190327</v>
+        <v>35.48014364190342</v>
       </c>
       <c r="C15">
-        <v>26.91016096761659</v>
+        <v>26.91016096761704</v>
       </c>
       <c r="D15">
-        <v>11.96852738362011</v>
+        <v>11.96852738362012</v>
       </c>
       <c r="E15">
-        <v>42.1098404086239</v>
+        <v>42.10984040862402</v>
       </c>
       <c r="F15">
-        <v>83.95571276964839</v>
+        <v>83.95571276964854</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -899,25 +983,31 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.99693745489056</v>
+        <v>33.99693745489048</v>
       </c>
       <c r="C16">
-        <v>25.76581099699495</v>
+        <v>25.76581099699486</v>
       </c>
       <c r="D16">
-        <v>11.52826172298007</v>
+        <v>11.52826172298009</v>
       </c>
       <c r="E16">
-        <v>40.19828504984866</v>
+        <v>40.19828504984852</v>
       </c>
       <c r="F16">
-        <v>80.52603259143342</v>
+        <v>80.52603259143335</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -934,25 +1024,31 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.09015736458159</v>
+        <v>33.09015736458163</v>
       </c>
       <c r="C17">
-        <v>25.06893172664895</v>
+        <v>25.06893172664885</v>
       </c>
       <c r="D17">
-        <v>11.26217231165911</v>
+        <v>11.26217231165909</v>
       </c>
       <c r="E17">
-        <v>39.04192034363454</v>
+        <v>39.0419203436345</v>
       </c>
       <c r="F17">
-        <v>78.43472975276252</v>
+        <v>78.43472975276259</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -969,25 +1065,31 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.56876172698243</v>
+        <v>32.56876172698263</v>
       </c>
       <c r="C18">
-        <v>24.66911465548086</v>
+        <v>24.66911465548089</v>
       </c>
       <c r="D18">
-        <v>11.11027157901295</v>
+        <v>11.1102715790131</v>
       </c>
       <c r="E18">
-        <v>38.38094843792835</v>
+        <v>38.38094843792849</v>
       </c>
       <c r="F18">
-        <v>77.23433467117515</v>
+        <v>77.23433467117587</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1004,25 +1106,31 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.39217126398298</v>
+        <v>32.39217126398302</v>
       </c>
       <c r="C19">
-        <v>24.53384343894225</v>
+        <v>24.53384343894239</v>
       </c>
       <c r="D19">
-        <v>11.05901096618923</v>
+        <v>11.05901096618925</v>
       </c>
       <c r="E19">
-        <v>38.15771199574974</v>
+        <v>38.15771199574976</v>
       </c>
       <c r="F19">
-        <v>76.82814258416828</v>
+        <v>76.82814258416857</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1039,25 +1147,31 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.18664885298153</v>
+        <v>33.18664885298151</v>
       </c>
       <c r="C20">
-        <v>25.14299322364008</v>
+        <v>25.14299322364035</v>
       </c>
       <c r="D20">
-        <v>11.29037273589011</v>
+        <v>11.29037273589005</v>
       </c>
       <c r="E20">
-        <v>39.16455127020188</v>
+        <v>39.16455127020174</v>
       </c>
       <c r="F20">
-        <v>78.65705230527773</v>
+        <v>78.65705230527715</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1074,25 +1188,31 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86496630445502</v>
+        <v>35.86496630445515</v>
       </c>
       <c r="C21">
-        <v>27.20802630276621</v>
+        <v>27.20802630276637</v>
       </c>
       <c r="D21">
-        <v>12.08373806170879</v>
+        <v>12.08373806170885</v>
       </c>
       <c r="E21">
-        <v>42.61016862356581</v>
+        <v>42.61016862356573</v>
       </c>
       <c r="F21">
-        <v>84.84718327092956</v>
+        <v>84.84718327092965</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1109,25 +1229,31 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.64089250772431</v>
+        <v>37.64089250772447</v>
       </c>
       <c r="C22">
-        <v>28.58817570060622</v>
+        <v>28.58817570060613</v>
       </c>
       <c r="D22">
-        <v>12.62043690929643</v>
+        <v>12.62043690929647</v>
       </c>
       <c r="E22">
-        <v>44.94478676273031</v>
+        <v>44.94478676273049</v>
       </c>
       <c r="F22">
-        <v>88.96865687882396</v>
+        <v>88.96865687882421</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1144,25 +1270,31 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.68925693826737</v>
+        <v>36.68925693826738</v>
       </c>
       <c r="C23">
-        <v>27.84746056301008</v>
+        <v>27.84746056300963</v>
       </c>
       <c r="D23">
-        <v>12.33183565613295</v>
+        <v>12.33183565613292</v>
       </c>
       <c r="E23">
-        <v>43.68836261057393</v>
+        <v>43.68836261057383</v>
       </c>
       <c r="F23">
-        <v>86.75872425500344</v>
+        <v>86.75872425500324</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1179,25 +1311,31 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.14302551706285</v>
+        <v>33.14302551706293</v>
       </c>
       <c r="C24">
-        <v>25.10950764703843</v>
+        <v>25.10950764703831</v>
       </c>
       <c r="D24">
-        <v>11.27762004292854</v>
+        <v>11.27762004292843</v>
       </c>
       <c r="E24">
-        <v>39.10909830811917</v>
+        <v>39.10909830811929</v>
       </c>
       <c r="F24">
-        <v>78.55653480363642</v>
+        <v>78.5565348036363</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1214,25 +1352,31 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31887174341284</v>
+        <v>29.31887174341285</v>
       </c>
       <c r="C25">
-        <v>22.19033144700976</v>
+        <v>22.19033144700978</v>
       </c>
       <c r="D25">
-        <v>10.18291235798907</v>
+        <v>10.18291235798911</v>
       </c>
       <c r="E25">
-        <v>34.31926875976241</v>
+        <v>34.31926875976246</v>
       </c>
       <c r="F25">
-        <v>69.87664922851232</v>
+        <v>69.87664922851224</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1247,6 +1391,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -421,31 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.42347503731436</v>
+        <v>13.17540809125538</v>
       </c>
       <c r="C2">
-        <v>19.99886229031767</v>
+        <v>7.283797348608839</v>
       </c>
       <c r="D2">
-        <v>9.388288595591575</v>
+        <v>6.63448385456018</v>
       </c>
       <c r="E2">
-        <v>30.77377411776577</v>
+        <v>6.491025030661511</v>
       </c>
       <c r="F2">
-        <v>63.56182861480191</v>
+        <v>41.3283281912394</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.89309692306661</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.48668042692174</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.23398964093735</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.38484812770633</v>
+        <v>12.38835917175167</v>
       </c>
       <c r="C3">
-        <v>18.46397124672529</v>
+        <v>6.804762564325391</v>
       </c>
       <c r="D3">
-        <v>8.849519637809502</v>
+        <v>6.6428432603398</v>
       </c>
       <c r="E3">
-        <v>28.31226926357524</v>
+        <v>6.39650422581737</v>
       </c>
       <c r="F3">
-        <v>59.19036081192104</v>
+        <v>39.83022204615819</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30.08214486193722</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.68451349070361</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.034226584333587</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08887446149547</v>
+        <v>11.89051379423896</v>
       </c>
       <c r="C4">
-        <v>17.49128058524111</v>
+        <v>6.496443412861712</v>
       </c>
       <c r="D4">
-        <v>8.517092694060567</v>
+        <v>6.648068878116684</v>
       </c>
       <c r="E4">
-        <v>26.76069239565584</v>
+        <v>6.341289738207899</v>
       </c>
       <c r="F4">
-        <v>56.45050333521679</v>
+        <v>38.90692856171462</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.58889303347697</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.16622005340068</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.913745140167278</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.54881656714493</v>
+        <v>11.68416068533389</v>
       </c>
       <c r="C5">
-        <v>17.08658420349837</v>
+        <v>6.367196513073252</v>
       </c>
       <c r="D5">
-        <v>8.381070846560384</v>
+        <v>6.650220397383692</v>
       </c>
       <c r="E5">
-        <v>26.11693298543736</v>
+        <v>6.319499043233274</v>
       </c>
       <c r="F5">
-        <v>55.31894217127837</v>
+        <v>38.53016274641863</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29.38917385571484</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.948449739129979</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.865237735612832</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.45839791254531</v>
+        <v>11.64969255836556</v>
       </c>
       <c r="C6">
-        <v>17.01886368656685</v>
+        <v>6.345516558908401</v>
       </c>
       <c r="D6">
-        <v>8.358447793206556</v>
+        <v>6.650578949476232</v>
       </c>
       <c r="E6">
-        <v>26.00930803074012</v>
+        <v>6.315923564043587</v>
       </c>
       <c r="F6">
-        <v>55.13011678721328</v>
+        <v>38.46758098275186</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>29.35609159759512</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.911890464776414</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.857220033537474</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08164037263819</v>
+        <v>11.88774462974881</v>
       </c>
       <c r="C7">
-        <v>17.48585724081182</v>
+        <v>6.494714980279888</v>
       </c>
       <c r="D7">
-        <v>8.515260655957157</v>
+        <v>6.648097806713675</v>
       </c>
       <c r="E7">
-        <v>26.7520585593942</v>
+        <v>6.340992988305431</v>
       </c>
       <c r="F7">
-        <v>56.43530467096149</v>
+        <v>38.90184896073379</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.58619419756604</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.16330980252069</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.9130885060371</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.72920989287808</v>
+        <v>12.90716255445261</v>
       </c>
       <c r="C8">
-        <v>19.47544971045633</v>
+        <v>7.121547127764817</v>
       </c>
       <c r="D8">
-        <v>9.202748790060911</v>
+        <v>6.637346069747604</v>
       </c>
       <c r="E8">
-        <v>29.93249018775536</v>
+        <v>6.457848864937075</v>
       </c>
       <c r="F8">
-        <v>62.06535951554755</v>
+        <v>40.81269406724851</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.61257238356592</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.21538772176417</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.164685274348928</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.61512095244739</v>
+        <v>15.02345831129965</v>
       </c>
       <c r="C9">
-        <v>23.17640264765298</v>
+        <v>8.240200521370436</v>
       </c>
       <c r="D9">
-        <v>10.5486208301241</v>
+        <v>6.617063274679302</v>
       </c>
       <c r="E9">
-        <v>35.92794154082264</v>
+        <v>6.709381729512702</v>
       </c>
       <c r="F9">
-        <v>72.75185367649415</v>
+        <v>44.5196036487253</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.65830744459719</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.07814814521939</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.673590639757228</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.10049648182904</v>
+        <v>16.49456826980759</v>
       </c>
       <c r="C10">
-        <v>25.84552666713162</v>
+        <v>8.998037708849767</v>
       </c>
       <c r="D10">
-        <v>11.55880171813879</v>
+        <v>6.602747971172112</v>
       </c>
       <c r="E10">
-        <v>40.3309213532299</v>
+        <v>6.907858627791527</v>
       </c>
       <c r="F10">
-        <v>80.76514898864144</v>
+        <v>47.20542701488765</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.17735321699465</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.33057457177132</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.055007173828214</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.69037928621959</v>
+        <v>17.13634521626498</v>
       </c>
       <c r="C11">
-        <v>27.07283950664337</v>
+        <v>9.329783062819999</v>
       </c>
       <c r="D11">
-        <v>12.03142000939438</v>
+        <v>6.596388187925214</v>
       </c>
       <c r="E11">
-        <v>42.38294602322421</v>
+        <v>7.001149982012691</v>
       </c>
       <c r="F11">
-        <v>84.44266199602295</v>
+        <v>48.41758267118671</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.87149988504166</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.87656303956985</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.229876874880119</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.29636231448992</v>
+        <v>17.37555924277884</v>
       </c>
       <c r="C12">
-        <v>27.54243372989772</v>
+        <v>9.453621951146765</v>
       </c>
       <c r="D12">
-        <v>12.2133593901425</v>
+        <v>6.594004310161569</v>
       </c>
       <c r="E12">
-        <v>43.17331847737456</v>
+        <v>7.036913404937271</v>
       </c>
       <c r="F12">
-        <v>85.84726717030942</v>
+        <v>48.8751662800439</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.13480734813579</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.08003089206692</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.296278052276547</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.16561187650129</v>
+        <v>17.32420752377807</v>
       </c>
       <c r="C13">
-        <v>27.4410234550847</v>
+        <v>9.427029022433842</v>
       </c>
       <c r="D13">
-        <v>12.17402115518737</v>
+        <v>6.594516590052532</v>
       </c>
       <c r="E13">
-        <v>43.00237729302142</v>
+        <v>7.029191623677909</v>
       </c>
       <c r="F13">
-        <v>85.54407671466595</v>
+        <v>48.776681226887</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.0780790471455</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.03635442760351</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.281969407579201</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.74013170463808</v>
+        <v>17.15610109990617</v>
       </c>
       <c r="C14">
-        <v>27.1113553334105</v>
+        <v>9.340006640916757</v>
       </c>
       <c r="D14">
-        <v>12.0463209151075</v>
+        <v>6.596191559406432</v>
       </c>
       <c r="E14">
-        <v>42.44765844908599</v>
+        <v>7.004083488202069</v>
       </c>
       <c r="F14">
-        <v>84.55792630318814</v>
+        <v>48.45525710219826</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.89315322999162</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.89336754295402</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.235336142883872</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.48014364190342</v>
+        <v>17.05263870466602</v>
       </c>
       <c r="C15">
-        <v>26.91016096761704</v>
+        <v>9.286472991009042</v>
       </c>
       <c r="D15">
-        <v>11.96852738362012</v>
+        <v>6.597220789687125</v>
       </c>
       <c r="E15">
-        <v>42.10984040862402</v>
+        <v>6.988760982623981</v>
       </c>
       <c r="F15">
-        <v>83.95571276964854</v>
+        <v>48.25818864815093</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.77993987850385</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.80536001129726</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.206795342490823</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.99693745489048</v>
+        <v>16.45208548983958</v>
       </c>
       <c r="C16">
-        <v>25.76581099699486</v>
+        <v>8.976102698413744</v>
       </c>
       <c r="D16">
-        <v>11.52826172298009</v>
+        <v>6.603166871525174</v>
       </c>
       <c r="E16">
-        <v>40.19828504984852</v>
+        <v>6.901822544678371</v>
       </c>
       <c r="F16">
-        <v>80.52603259143335</v>
+        <v>47.12601021272342</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.13205123229221</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.2944258330628</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.043605023641543</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.09015736458163</v>
+        <v>16.07672741807888</v>
       </c>
       <c r="C17">
-        <v>25.06893172664885</v>
+        <v>8.782427480633313</v>
       </c>
       <c r="D17">
-        <v>11.26217231165909</v>
+        <v>6.606855307310297</v>
       </c>
       <c r="E17">
-        <v>39.0419203436345</v>
+        <v>6.849259958936872</v>
       </c>
       <c r="F17">
-        <v>78.43472975276259</v>
+        <v>46.42893127568558</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.73538274354704</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.97499016043254</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.943828985133333</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.56876172698263</v>
+        <v>15.85823989897264</v>
       </c>
       <c r="C18">
-        <v>24.66911465548089</v>
+        <v>8.669801563090692</v>
       </c>
       <c r="D18">
-        <v>11.1102715790131</v>
+        <v>6.608990964825376</v>
       </c>
       <c r="E18">
-        <v>38.38094843792849</v>
+        <v>6.819309639607518</v>
       </c>
       <c r="F18">
-        <v>77.23433467117587</v>
+        <v>46.02708127473519</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.50752181021389</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.78901573331411</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.886568894594637</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.39217126398302</v>
+        <v>15.78381490041859</v>
       </c>
       <c r="C19">
-        <v>24.53384343894239</v>
+        <v>8.631454894637308</v>
       </c>
       <c r="D19">
-        <v>11.05901096618925</v>
+        <v>6.609716423365884</v>
       </c>
       <c r="E19">
-        <v>38.15771199574976</v>
+        <v>6.809217376012922</v>
       </c>
       <c r="F19">
-        <v>76.82814258416857</v>
+        <v>45.89086827578397</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.43042274326674</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.72565893359143</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.867204244631765</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.18664885298151</v>
+        <v>16.11695222303775</v>
       </c>
       <c r="C20">
-        <v>25.14299322364035</v>
+        <v>8.803171169008916</v>
       </c>
       <c r="D20">
-        <v>11.29037273589005</v>
+        <v>6.606461183579763</v>
       </c>
       <c r="E20">
-        <v>39.16455127020174</v>
+        <v>6.854826098525724</v>
       </c>
       <c r="F20">
-        <v>78.65705230527715</v>
+        <v>46.50323112079757</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.77757863480156</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.00922592910777</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.954437150823174</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86496630445515</v>
+        <v>17.20558037906102</v>
       </c>
       <c r="C21">
-        <v>27.20802630276637</v>
+        <v>9.365614977541197</v>
       </c>
       <c r="D21">
-        <v>12.08373806170885</v>
+        <v>6.595698895231288</v>
       </c>
       <c r="E21">
-        <v>42.61016862356573</v>
+        <v>7.011446475912791</v>
       </c>
       <c r="F21">
-        <v>84.84718327092965</v>
+        <v>48.54970609456662</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.94745807238535</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.93545435868814</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.249028594042858</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.64089250772447</v>
+        <v>17.89491001383382</v>
       </c>
       <c r="C22">
-        <v>28.58817570060613</v>
+        <v>9.722841229454815</v>
       </c>
       <c r="D22">
-        <v>12.62043690929647</v>
+        <v>6.588808982474653</v>
       </c>
       <c r="E22">
-        <v>44.94478676273049</v>
+        <v>7.116352457085308</v>
       </c>
       <c r="F22">
-        <v>88.96865687882421</v>
+        <v>49.87886880752087</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>35.71468433326386</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.52171251131959</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.442621214258272</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.68925693826738</v>
+        <v>17.52898069687262</v>
       </c>
       <c r="C23">
-        <v>27.84746056300963</v>
+        <v>9.533100866280522</v>
       </c>
       <c r="D23">
-        <v>12.33183565613292</v>
+        <v>6.592472162529692</v>
       </c>
       <c r="E23">
-        <v>43.68836261057383</v>
+        <v>7.060127104514753</v>
       </c>
       <c r="F23">
-        <v>86.75872425500324</v>
+        <v>49.17022901488513</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.30495076618474</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.2105162184061</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.339202354126874</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.14302551706293</v>
+        <v>16.09877497469117</v>
       </c>
       <c r="C24">
-        <v>25.10950764703831</v>
+        <v>8.793796938878442</v>
       </c>
       <c r="D24">
-        <v>11.27762004292843</v>
+        <v>6.606639319991079</v>
       </c>
       <c r="E24">
-        <v>39.10909830811929</v>
+        <v>6.852308810423992</v>
       </c>
       <c r="F24">
-        <v>78.5565348036363</v>
+        <v>46.46964355155252</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.75850128300988</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.99375519451399</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.949640878719764</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31887174341285</v>
+        <v>14.45658064141696</v>
       </c>
       <c r="C25">
-        <v>22.19033144700978</v>
+        <v>7.949093444722117</v>
       </c>
       <c r="D25">
-        <v>10.18291235798911</v>
+        <v>6.622455082226672</v>
       </c>
       <c r="E25">
-        <v>34.31926875976246</v>
+        <v>6.638938323612724</v>
       </c>
       <c r="F25">
-        <v>69.87664922851224</v>
+        <v>43.52266738293593</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.10184411790864</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.59507806428672</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.534477370884747</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17540809125538</v>
+        <v>14.63600841952526</v>
       </c>
       <c r="C2">
-        <v>7.283797348608839</v>
+        <v>4.562363476012454</v>
       </c>
       <c r="D2">
-        <v>6.63448385456018</v>
+        <v>8.577642651360105</v>
       </c>
       <c r="E2">
-        <v>6.491025030661511</v>
+        <v>10.07149674727938</v>
       </c>
       <c r="F2">
-        <v>41.3283281912394</v>
+        <v>43.39203069139788</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>30.89309692306661</v>
+        <v>35.38290916615529</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.48668042692174</v>
+        <v>12.91868258295409</v>
       </c>
       <c r="L2">
-        <v>7.23398964093735</v>
+        <v>10.38218828623071</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38835917175167</v>
+        <v>14.53035442462118</v>
       </c>
       <c r="C3">
-        <v>6.804762564325391</v>
+        <v>4.327100145637687</v>
       </c>
       <c r="D3">
-        <v>6.6428432603398</v>
+        <v>8.569480945865621</v>
       </c>
       <c r="E3">
-        <v>6.39650422581737</v>
+        <v>10.07816099576454</v>
       </c>
       <c r="F3">
-        <v>39.83022204615819</v>
+        <v>43.04555017766453</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>30.08214486193722</v>
+        <v>35.21440922354903</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.68451349070361</v>
+        <v>12.84548908304078</v>
       </c>
       <c r="L3">
-        <v>7.034226584333587</v>
+        <v>10.37515367810474</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89051379423896</v>
+        <v>14.47017483856947</v>
       </c>
       <c r="C4">
-        <v>6.496443412861712</v>
+        <v>4.174976701742558</v>
       </c>
       <c r="D4">
-        <v>6.648068878116684</v>
+        <v>8.564290945350967</v>
       </c>
       <c r="E4">
-        <v>6.341289738207899</v>
+        <v>10.08373185145541</v>
       </c>
       <c r="F4">
-        <v>38.90692856171462</v>
+        <v>42.83813177391556</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>29.58889303347697</v>
+        <v>35.11473204334627</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16622005340068</v>
+        <v>12.80449573145671</v>
       </c>
       <c r="L4">
-        <v>6.913745140167278</v>
+        <v>10.37281800431324</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68416068533389</v>
+        <v>14.4468583345201</v>
       </c>
       <c r="C5">
-        <v>6.367196513073252</v>
+        <v>4.111083119008512</v>
       </c>
       <c r="D5">
-        <v>6.650220397383692</v>
+        <v>8.562130747608352</v>
       </c>
       <c r="E5">
-        <v>6.319499043233274</v>
+        <v>10.08637415429253</v>
       </c>
       <c r="F5">
-        <v>38.53016274641863</v>
+        <v>42.75500481761795</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>29.38917385571484</v>
+        <v>35.07508235710151</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.948449739129979</v>
+        <v>12.78879970875627</v>
       </c>
       <c r="L5">
-        <v>6.865237735612832</v>
+        <v>10.37236603812561</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64969255836556</v>
+        <v>14.44306030516678</v>
       </c>
       <c r="C6">
-        <v>6.345516558908401</v>
+        <v>4.100359658481573</v>
       </c>
       <c r="D6">
-        <v>6.650578949476232</v>
+        <v>8.561769307758524</v>
       </c>
       <c r="E6">
-        <v>6.315923564043587</v>
+        <v>10.0868353877573</v>
       </c>
       <c r="F6">
-        <v>38.46758098275186</v>
+        <v>42.74128775210465</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>29.35609159759512</v>
+        <v>35.06855763001283</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.911890464776414</v>
+        <v>12.78625478861131</v>
       </c>
       <c r="L6">
-        <v>6.857220033537474</v>
+        <v>10.37232120365971</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88774462974881</v>
+        <v>14.46985546211245</v>
       </c>
       <c r="C7">
-        <v>6.494714980279888</v>
+        <v>4.174122672118666</v>
       </c>
       <c r="D7">
-        <v>6.648097806713675</v>
+        <v>8.564261995716352</v>
       </c>
       <c r="E7">
-        <v>6.340992988305431</v>
+        <v>10.08376597947069</v>
       </c>
       <c r="F7">
-        <v>38.90184896073379</v>
+        <v>42.83700495902758</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>29.58619419756604</v>
+        <v>35.11419336476484</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16330980252069</v>
+        <v>12.80427994323925</v>
       </c>
       <c r="L7">
-        <v>6.9130885060371</v>
+        <v>10.37280988393497</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90716255445261</v>
+        <v>14.59862207325103</v>
       </c>
       <c r="C8">
-        <v>7.121547127764817</v>
+        <v>4.482851133118324</v>
       </c>
       <c r="D8">
-        <v>6.637346069747604</v>
+        <v>8.574865400116613</v>
       </c>
       <c r="E8">
-        <v>6.457848864937075</v>
+        <v>10.07348778004926</v>
       </c>
       <c r="F8">
-        <v>40.81269406724851</v>
+        <v>43.27149609731136</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>30.61257238356592</v>
+        <v>35.32403676911836</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.21538772176417</v>
+        <v>12.89263647667349</v>
       </c>
       <c r="L8">
-        <v>7.164685274348928</v>
+        <v>10.37935176427846</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.02345831129965</v>
+        <v>14.88705600075644</v>
       </c>
       <c r="C9">
-        <v>8.240200521370436</v>
+        <v>5.026492430600872</v>
       </c>
       <c r="D9">
-        <v>6.617063274679302</v>
+        <v>8.594254565786672</v>
       </c>
       <c r="E9">
-        <v>6.709381729512702</v>
+        <v>10.06505484436621</v>
       </c>
       <c r="F9">
-        <v>44.5196036487253</v>
+        <v>44.16303208732247</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>32.65830744459719</v>
+        <v>35.76469086133142</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.07814814521939</v>
+        <v>13.09642447285637</v>
       </c>
       <c r="L9">
-        <v>7.673590639757228</v>
+        <v>10.40786274426256</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.49456826980759</v>
+        <v>15.11897000663642</v>
       </c>
       <c r="C10">
-        <v>8.998037708849767</v>
+        <v>5.38734057311506</v>
       </c>
       <c r="D10">
-        <v>6.602747971172112</v>
+        <v>8.607662949769662</v>
       </c>
       <c r="E10">
-        <v>6.907858627791527</v>
+        <v>10.06598543810546</v>
       </c>
       <c r="F10">
-        <v>47.20542701488765</v>
+        <v>44.83832896536155</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>34.17735321699465</v>
+        <v>36.10499053265374</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.33057457177132</v>
+        <v>13.26357003738432</v>
       </c>
       <c r="L10">
-        <v>8.055007173828214</v>
+        <v>10.43827860457699</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.13634521626498</v>
+        <v>15.22837739660829</v>
       </c>
       <c r="C11">
-        <v>9.329783062819999</v>
+        <v>5.543005406550329</v>
       </c>
       <c r="D11">
-        <v>6.596388187925214</v>
+        <v>8.613585109635128</v>
       </c>
       <c r="E11">
-        <v>7.001149982012691</v>
+        <v>10.06795009638252</v>
       </c>
       <c r="F11">
-        <v>48.41758267118671</v>
+        <v>45.14910073752421</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>34.87149988504166</v>
+        <v>36.26311309547312</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.87656303956985</v>
+        <v>13.34311096286092</v>
       </c>
       <c r="L11">
-        <v>8.229876874880119</v>
+        <v>10.45414622569835</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37555924277884</v>
+        <v>15.27033045246928</v>
       </c>
       <c r="C12">
-        <v>9.453621951146765</v>
+        <v>5.600724470005993</v>
       </c>
       <c r="D12">
-        <v>6.594004310161569</v>
+        <v>8.61580247604468</v>
       </c>
       <c r="E12">
-        <v>7.036913404937271</v>
+        <v>10.06891499163133</v>
       </c>
       <c r="F12">
-        <v>48.8751662800439</v>
+        <v>45.26722323204387</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>35.13480734813579</v>
+        <v>36.3234415667719</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.08003089206692</v>
+        <v>13.3737098151865</v>
       </c>
       <c r="L12">
-        <v>8.296278052276547</v>
+        <v>10.46044431305005</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32420752377807</v>
+        <v>15.26127249077541</v>
       </c>
       <c r="C13">
-        <v>9.427029022433842</v>
+        <v>5.588348340289196</v>
       </c>
       <c r="D13">
-        <v>6.594516590052532</v>
+        <v>8.61532604406664</v>
       </c>
       <c r="E13">
-        <v>7.029191623677909</v>
+        <v>10.06869737113984</v>
       </c>
       <c r="F13">
-        <v>48.776681226887</v>
+        <v>45.2417650601874</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>35.0780790471455</v>
+        <v>36.31042912574069</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.03635442760351</v>
+        <v>13.36709894507569</v>
       </c>
       <c r="L13">
-        <v>8.281969407579201</v>
+        <v>10.45907508433295</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15610109990617</v>
+        <v>15.23181864872218</v>
       </c>
       <c r="C14">
-        <v>9.340006640916757</v>
+        <v>5.547778630995757</v>
       </c>
       <c r="D14">
-        <v>6.596191559406432</v>
+        <v>8.613768037700064</v>
       </c>
       <c r="E14">
-        <v>7.004083488202069</v>
+        <v>10.06802505576856</v>
       </c>
       <c r="F14">
-        <v>48.45525710219826</v>
+        <v>45.15881035606589</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>34.89315322999162</v>
+        <v>36.26806747242107</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.89336754295402</v>
+        <v>13.34561891073667</v>
       </c>
       <c r="L14">
-        <v>8.235336142883872</v>
+        <v>10.45465859054433</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05263870466602</v>
+        <v>15.21384423198973</v>
       </c>
       <c r="C15">
-        <v>9.286472991009042</v>
+        <v>5.522768429791072</v>
       </c>
       <c r="D15">
-        <v>6.597220789687125</v>
+        <v>8.612810436764383</v>
       </c>
       <c r="E15">
-        <v>6.988760982623981</v>
+        <v>10.06764199067719</v>
       </c>
       <c r="F15">
-        <v>48.25818864815093</v>
+        <v>45.10805328721016</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>34.77993987850385</v>
+        <v>36.24217765986665</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.80536001129726</v>
+        <v>13.33252329740155</v>
       </c>
       <c r="L15">
-        <v>8.206795342490823</v>
+        <v>10.45199095818194</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45208548983958</v>
+        <v>15.11189529780639</v>
       </c>
       <c r="C16">
-        <v>8.976102698413744</v>
+        <v>5.376996046592769</v>
       </c>
       <c r="D16">
-        <v>6.603166871525174</v>
+        <v>8.607272377367197</v>
       </c>
       <c r="E16">
-        <v>6.901822544678371</v>
+        <v>10.06588799932018</v>
       </c>
       <c r="F16">
-        <v>47.12601021272342</v>
+        <v>44.81808492476303</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>34.13205123229221</v>
+        <v>36.0947213995295</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.2944258330628</v>
+        <v>13.25844021986119</v>
       </c>
       <c r="L16">
-        <v>8.043605023641543</v>
+        <v>10.43728226596283</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.07672741807888</v>
+        <v>15.05032642878158</v>
       </c>
       <c r="C17">
-        <v>8.782427480633313</v>
+        <v>5.285389715672673</v>
       </c>
       <c r="D17">
-        <v>6.606855307310297</v>
+        <v>8.60382972625607</v>
       </c>
       <c r="E17">
-        <v>6.849259958936872</v>
+        <v>10.06520627333459</v>
       </c>
       <c r="F17">
-        <v>46.42893127568558</v>
+        <v>44.64106200681069</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>33.73538274354704</v>
+        <v>36.00509327827893</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.97499016043254</v>
+        <v>13.21387256300096</v>
       </c>
       <c r="L17">
-        <v>7.943828985133333</v>
+        <v>10.42877736986075</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85823989897264</v>
+        <v>15.01528395070773</v>
       </c>
       <c r="C18">
-        <v>8.669801563090692</v>
+        <v>5.231901645929173</v>
       </c>
       <c r="D18">
-        <v>6.608990964825376</v>
+        <v>8.601832891910275</v>
       </c>
       <c r="E18">
-        <v>6.819309639607518</v>
+        <v>10.06495928893036</v>
       </c>
       <c r="F18">
-        <v>46.02708127473519</v>
+        <v>44.53958418092946</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>33.50752181021389</v>
+        <v>35.95385554367743</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.78901573331411</v>
+        <v>13.18856998981829</v>
       </c>
       <c r="L18">
-        <v>7.886568894594637</v>
+        <v>10.42407695578406</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78381490041859</v>
+        <v>15.00348394855201</v>
       </c>
       <c r="C19">
-        <v>8.631454894637308</v>
+        <v>5.213654620134404</v>
       </c>
       <c r="D19">
-        <v>6.609716423365884</v>
+        <v>8.601153919125053</v>
       </c>
       <c r="E19">
-        <v>6.809217376012922</v>
+        <v>10.06490061010264</v>
       </c>
       <c r="F19">
-        <v>45.89086827578397</v>
+        <v>44.50528636231977</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>33.43042274326674</v>
+        <v>35.93656204238705</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.72565893359143</v>
+        <v>13.18006068579751</v>
       </c>
       <c r="L19">
-        <v>7.867204244631765</v>
+        <v>10.42251842409047</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11695222303775</v>
+        <v>15.05684249563256</v>
       </c>
       <c r="C20">
-        <v>8.803171169008916</v>
+        <v>5.295224071800052</v>
       </c>
       <c r="D20">
-        <v>6.606461183579763</v>
+        <v>8.604197929994106</v>
       </c>
       <c r="E20">
-        <v>6.854826098525724</v>
+        <v>10.06526382910161</v>
       </c>
       <c r="F20">
-        <v>46.50323112079757</v>
+        <v>44.65987163447094</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>33.77757863480156</v>
+        <v>36.01460203600157</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.00922592910777</v>
+        <v>13.2185827334672</v>
       </c>
       <c r="L20">
-        <v>7.954437150823174</v>
+        <v>10.42966294265956</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.20558037906102</v>
+        <v>15.24045608285906</v>
       </c>
       <c r="C21">
-        <v>9.365614977541197</v>
+        <v>5.559728309406191</v>
       </c>
       <c r="D21">
-        <v>6.595698895231288</v>
+        <v>8.614226344374893</v>
       </c>
       <c r="E21">
-        <v>7.011446475912791</v>
+        <v>10.06821654156514</v>
       </c>
       <c r="F21">
-        <v>48.54970609456662</v>
+        <v>45.18316481762339</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>34.94745807238535</v>
+        <v>36.28049809384135</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.93545435868814</v>
+        <v>13.35191534222234</v>
       </c>
       <c r="L21">
-        <v>8.249028594042858</v>
+        <v>10.4559479918032</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89491001383382</v>
+        <v>15.3634870029962</v>
       </c>
       <c r="C22">
-        <v>9.722841229454815</v>
+        <v>5.725438409135882</v>
       </c>
       <c r="D22">
-        <v>6.588808982474653</v>
+        <v>8.620633578023391</v>
       </c>
       <c r="E22">
-        <v>7.116352457085308</v>
+        <v>10.0714336066257</v>
       </c>
       <c r="F22">
-        <v>49.87886880752087</v>
+        <v>45.52769683616779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>35.71468433326386</v>
+        <v>36.45689187034045</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.52171251131959</v>
+        <v>13.44183203980072</v>
       </c>
       <c r="L22">
-        <v>8.442621214258272</v>
+        <v>10.47481195257578</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52898069687262</v>
+        <v>15.29755911430304</v>
       </c>
       <c r="C23">
-        <v>9.533100866280522</v>
+        <v>5.637652738418064</v>
       </c>
       <c r="D23">
-        <v>6.592472162529692</v>
+        <v>8.617227267956668</v>
       </c>
       <c r="E23">
-        <v>7.060127104514753</v>
+        <v>10.06959907422488</v>
       </c>
       <c r="F23">
-        <v>49.17022901488513</v>
+        <v>45.34360681924257</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>35.30495076618474</v>
+        <v>36.36251679958548</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.2105162184061</v>
+        <v>13.393596502061</v>
       </c>
       <c r="L23">
-        <v>8.339202354126874</v>
+        <v>10.46459068685415</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09877497469117</v>
+        <v>15.05389547528802</v>
       </c>
       <c r="C24">
-        <v>8.793796938878442</v>
+        <v>5.290780520355922</v>
       </c>
       <c r="D24">
-        <v>6.606639319991079</v>
+        <v>8.604031519944481</v>
       </c>
       <c r="E24">
-        <v>6.852308810423992</v>
+        <v>10.06523735659935</v>
       </c>
       <c r="F24">
-        <v>46.46964355155252</v>
+        <v>44.65136687718056</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>33.75850128300988</v>
+        <v>36.01030221919742</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.99375519451399</v>
+        <v>13.21645226680448</v>
       </c>
       <c r="L24">
-        <v>7.949640878719764</v>
+        <v>10.42926198578016</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.45658064141696</v>
+        <v>14.80536995359446</v>
       </c>
       <c r="C25">
-        <v>7.949093444722117</v>
+        <v>4.886144561423161</v>
       </c>
       <c r="D25">
-        <v>6.622455082226672</v>
+        <v>8.589157607797462</v>
       </c>
       <c r="E25">
-        <v>6.638938323612724</v>
+        <v>10.06608289690145</v>
       </c>
       <c r="F25">
-        <v>43.52266738293593</v>
+        <v>43.91800344213559</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>32.10184411790864</v>
+        <v>35.64248276612115</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.59507806428672</v>
+        <v>13.03814341453413</v>
       </c>
       <c r="L25">
-        <v>7.534477370884747</v>
+        <v>10.39847915149024</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.63600841952526</v>
+        <v>13.17540809125538</v>
       </c>
       <c r="C2">
-        <v>4.562363476012454</v>
+        <v>7.283797348608763</v>
       </c>
       <c r="D2">
-        <v>8.577642651360105</v>
+        <v>6.634483854560133</v>
       </c>
       <c r="E2">
-        <v>10.07149674727938</v>
+        <v>6.491025030661475</v>
       </c>
       <c r="F2">
-        <v>43.39203069139788</v>
+        <v>41.32832819123951</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>35.38290916615529</v>
+        <v>30.89309692306671</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.91868258295409</v>
+        <v>11.48668042692174</v>
       </c>
       <c r="L2">
-        <v>10.38218828623071</v>
+        <v>7.233989640937335</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.53035442462118</v>
+        <v>12.38835917175171</v>
       </c>
       <c r="C3">
-        <v>4.327100145637687</v>
+        <v>6.80476256432513</v>
       </c>
       <c r="D3">
-        <v>8.569480945865621</v>
+        <v>6.642843260339792</v>
       </c>
       <c r="E3">
-        <v>10.07816099576454</v>
+        <v>6.396504225817369</v>
       </c>
       <c r="F3">
-        <v>43.04555017766453</v>
+        <v>39.83022204615838</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>35.21440922354903</v>
+        <v>30.08214486193732</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.84548908304078</v>
+        <v>10.68451349070354</v>
       </c>
       <c r="L3">
-        <v>10.37515367810474</v>
+        <v>7.034226584333658</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.47017483856947</v>
+        <v>11.89051379423899</v>
       </c>
       <c r="C4">
-        <v>4.174976701742558</v>
+        <v>6.496443412862034</v>
       </c>
       <c r="D4">
-        <v>8.564290945350967</v>
+        <v>6.64806887811655</v>
       </c>
       <c r="E4">
-        <v>10.08373185145541</v>
+        <v>6.341289738207842</v>
       </c>
       <c r="F4">
-        <v>42.83813177391556</v>
+        <v>38.90692856171457</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>35.11473204334627</v>
+        <v>29.588893033477</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.80449573145671</v>
+        <v>10.16622005340065</v>
       </c>
       <c r="L4">
-        <v>10.37281800431324</v>
+        <v>6.913745140167121</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.4468583345201</v>
+        <v>11.68416068533391</v>
       </c>
       <c r="C5">
-        <v>4.111083119008512</v>
+        <v>6.367196513073151</v>
       </c>
       <c r="D5">
-        <v>8.562130747608352</v>
+        <v>6.650220397384079</v>
       </c>
       <c r="E5">
-        <v>10.08637415429253</v>
+        <v>6.319499043233236</v>
       </c>
       <c r="F5">
-        <v>42.75500481761795</v>
+        <v>38.53016274641868</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>35.07508235710151</v>
+        <v>29.38917385571497</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.78879970875627</v>
+        <v>9.94844973912994</v>
       </c>
       <c r="L5">
-        <v>10.37236603812561</v>
+        <v>6.865237735612792</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.44306030516678</v>
+        <v>11.64969255836558</v>
       </c>
       <c r="C6">
-        <v>4.100359658481573</v>
+        <v>6.345516558908582</v>
       </c>
       <c r="D6">
-        <v>8.561769307758524</v>
+        <v>6.650578949476241</v>
       </c>
       <c r="E6">
-        <v>10.0868353877573</v>
+        <v>6.315923564043678</v>
       </c>
       <c r="F6">
-        <v>42.74128775210465</v>
+        <v>38.46758098275192</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>35.06855763001283</v>
+        <v>29.35609159759519</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.78625478861131</v>
+        <v>9.911890464776414</v>
       </c>
       <c r="L6">
-        <v>10.37232120365971</v>
+        <v>6.857220033537464</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.46985546211245</v>
+        <v>11.8877446297488</v>
       </c>
       <c r="C7">
-        <v>4.174122672118666</v>
+        <v>6.494714980279692</v>
       </c>
       <c r="D7">
-        <v>8.564261995716352</v>
+        <v>6.648097806713864</v>
       </c>
       <c r="E7">
-        <v>10.08376597947069</v>
+        <v>6.34099298830544</v>
       </c>
       <c r="F7">
-        <v>42.83700495902758</v>
+        <v>38.90184896073377</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>35.11419336476484</v>
+        <v>29.58619419756604</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.80427994323925</v>
+        <v>10.16330980252068</v>
       </c>
       <c r="L7">
-        <v>10.37280988393497</v>
+        <v>6.913088506037181</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.59862207325103</v>
+        <v>12.9071625544526</v>
       </c>
       <c r="C8">
-        <v>4.482851133118324</v>
+        <v>7.121547127764893</v>
       </c>
       <c r="D8">
-        <v>8.574865400116613</v>
+        <v>6.637346069747542</v>
       </c>
       <c r="E8">
-        <v>10.07348778004926</v>
+        <v>6.457848864937082</v>
       </c>
       <c r="F8">
-        <v>43.27149609731136</v>
+        <v>40.81269406724839</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>35.32403676911836</v>
+        <v>30.61257238356583</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.89263647667349</v>
+        <v>11.21538772176421</v>
       </c>
       <c r="L8">
-        <v>10.37935176427846</v>
+        <v>7.164685274348927</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88705600075644</v>
+        <v>15.02345831129964</v>
       </c>
       <c r="C9">
-        <v>5.026492430600872</v>
+        <v>8.240200521370387</v>
       </c>
       <c r="D9">
-        <v>8.594254565786672</v>
+        <v>6.617063274679379</v>
       </c>
       <c r="E9">
-        <v>10.06505484436621</v>
+        <v>6.709381729512742</v>
       </c>
       <c r="F9">
-        <v>44.16303208732247</v>
+        <v>44.51960364872541</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>35.76469086133142</v>
+        <v>32.65830744459729</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.09642447285637</v>
+        <v>13.07814814521939</v>
       </c>
       <c r="L9">
-        <v>10.40786274426256</v>
+        <v>7.673590639757283</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.11897000663642</v>
+        <v>16.49456826980763</v>
       </c>
       <c r="C10">
-        <v>5.38734057311506</v>
+        <v>8.998037708849679</v>
       </c>
       <c r="D10">
-        <v>8.607662949769662</v>
+        <v>6.602747971172188</v>
       </c>
       <c r="E10">
-        <v>10.06598543810546</v>
+        <v>6.907858627791515</v>
       </c>
       <c r="F10">
-        <v>44.83832896536155</v>
+        <v>47.20542701488769</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>36.10499053265374</v>
+        <v>34.17735321699468</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.26357003738432</v>
+        <v>14.33057457177136</v>
       </c>
       <c r="L10">
-        <v>10.43827860457699</v>
+        <v>8.05500717382824</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.22837739660829</v>
+        <v>17.13634521626491</v>
       </c>
       <c r="C11">
-        <v>5.543005406550329</v>
+        <v>9.329783062819855</v>
       </c>
       <c r="D11">
-        <v>8.613585109635128</v>
+        <v>6.596388187925214</v>
       </c>
       <c r="E11">
-        <v>10.06795009638252</v>
+        <v>7.001149982012629</v>
       </c>
       <c r="F11">
-        <v>45.14910073752421</v>
+        <v>48.41758267118693</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>36.26311309547312</v>
+        <v>34.87149988504181</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.34311096286092</v>
+        <v>14.87656303956979</v>
       </c>
       <c r="L11">
-        <v>10.45414622569835</v>
+        <v>8.229876874880105</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.27033045246928</v>
+        <v>17.3755592427788</v>
       </c>
       <c r="C12">
-        <v>5.600724470005993</v>
+        <v>9.45362195114687</v>
       </c>
       <c r="D12">
-        <v>8.61580247604468</v>
+        <v>6.594004310161694</v>
       </c>
       <c r="E12">
-        <v>10.06891499163133</v>
+        <v>7.036913404937264</v>
       </c>
       <c r="F12">
-        <v>45.26722323204387</v>
+        <v>48.87516628004396</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>36.3234415667719</v>
+        <v>35.1348073481359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.3737098151865</v>
+        <v>15.08003089206691</v>
       </c>
       <c r="L12">
-        <v>10.46044431305005</v>
+        <v>8.296278052276577</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.26127249077541</v>
+        <v>17.32420752377809</v>
       </c>
       <c r="C13">
-        <v>5.588348340289196</v>
+        <v>9.427029022433803</v>
       </c>
       <c r="D13">
-        <v>8.61532604406664</v>
+        <v>6.594516590052457</v>
       </c>
       <c r="E13">
-        <v>10.06869737113984</v>
+        <v>7.029191623677949</v>
       </c>
       <c r="F13">
-        <v>45.2417650601874</v>
+        <v>48.77668122688696</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>36.31042912574069</v>
+        <v>35.07807904714548</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.36709894507569</v>
+        <v>15.03635442760354</v>
       </c>
       <c r="L13">
-        <v>10.45907508433295</v>
+        <v>8.281969407579217</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.23181864872218</v>
+        <v>17.15610109990618</v>
       </c>
       <c r="C14">
-        <v>5.547778630995757</v>
+        <v>9.34000664091665</v>
       </c>
       <c r="D14">
-        <v>8.613768037700064</v>
+        <v>6.596191559406448</v>
       </c>
       <c r="E14">
-        <v>10.06802505576856</v>
+        <v>7.004083488202119</v>
       </c>
       <c r="F14">
-        <v>45.15881035606589</v>
+        <v>48.45525710219832</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>36.26806747242107</v>
+        <v>34.89315322999169</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.34561891073667</v>
+        <v>14.89336754295405</v>
       </c>
       <c r="L14">
-        <v>10.45465859054433</v>
+        <v>8.235336142883904</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.21384423198973</v>
+        <v>17.05263870466603</v>
       </c>
       <c r="C15">
-        <v>5.522768429791072</v>
+        <v>9.286472991008871</v>
       </c>
       <c r="D15">
-        <v>8.612810436764383</v>
+        <v>6.597220789687308</v>
       </c>
       <c r="E15">
-        <v>10.06764199067719</v>
+        <v>6.988760982624013</v>
       </c>
       <c r="F15">
-        <v>45.10805328721016</v>
+        <v>48.25818864815087</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>36.24217765986665</v>
+        <v>34.77993987850381</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.33252329740155</v>
+        <v>14.80536001129724</v>
       </c>
       <c r="L15">
-        <v>10.45199095818194</v>
+        <v>8.206795342490842</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11189529780639</v>
+        <v>16.45208548983965</v>
       </c>
       <c r="C16">
-        <v>5.376996046592769</v>
+        <v>8.976102698414007</v>
       </c>
       <c r="D16">
-        <v>8.607272377367197</v>
+        <v>6.603166871524947</v>
       </c>
       <c r="E16">
-        <v>10.06588799932018</v>
+        <v>6.901822544678458</v>
       </c>
       <c r="F16">
-        <v>44.81808492476303</v>
+        <v>47.12601021272361</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>36.0947213995295</v>
+        <v>34.13205123229232</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.25844021986119</v>
+        <v>14.29442583306293</v>
       </c>
       <c r="L16">
-        <v>10.43728226596283</v>
+        <v>8.043605023641554</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05032642878158</v>
+        <v>16.0767274180789</v>
       </c>
       <c r="C17">
-        <v>5.285389715672673</v>
+        <v>8.782427480633469</v>
       </c>
       <c r="D17">
-        <v>8.60382972625607</v>
+        <v>6.606855307310211</v>
       </c>
       <c r="E17">
-        <v>10.06520627333459</v>
+        <v>6.849259958936911</v>
       </c>
       <c r="F17">
-        <v>44.64106200681069</v>
+        <v>46.42893127568571</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>36.00509327827893</v>
+        <v>33.73538274354711</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.21387256300096</v>
+        <v>13.97499016043259</v>
       </c>
       <c r="L17">
-        <v>10.42877736986075</v>
+        <v>7.943828985133317</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01528395070773</v>
+        <v>15.85823989897269</v>
       </c>
       <c r="C18">
-        <v>5.231901645929173</v>
+        <v>8.669801563090557</v>
       </c>
       <c r="D18">
-        <v>8.601832891910275</v>
+        <v>6.608990964825323</v>
       </c>
       <c r="E18">
-        <v>10.06495928893036</v>
+        <v>6.81930963960755</v>
       </c>
       <c r="F18">
-        <v>44.53958418092946</v>
+        <v>46.02708127473532</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>35.95385554367743</v>
+        <v>33.50752181021399</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.18856998981829</v>
+        <v>13.78901573331409</v>
       </c>
       <c r="L18">
-        <v>10.42407695578406</v>
+        <v>7.88656889459467</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.00348394855201</v>
+        <v>15.78381490041855</v>
       </c>
       <c r="C19">
-        <v>5.213654620134404</v>
+        <v>8.631454894637452</v>
       </c>
       <c r="D19">
-        <v>8.601153919125053</v>
+        <v>6.609716423365828</v>
       </c>
       <c r="E19">
-        <v>10.06490061010264</v>
+        <v>6.809217376012948</v>
       </c>
       <c r="F19">
-        <v>44.50528636231977</v>
+        <v>45.89086827578395</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>35.93656204238705</v>
+        <v>33.43042274326676</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.18006068579751</v>
+        <v>13.72565893359143</v>
       </c>
       <c r="L19">
-        <v>10.42251842409047</v>
+        <v>7.867204244631763</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.05684249563256</v>
+        <v>16.11695222303781</v>
       </c>
       <c r="C20">
-        <v>5.295224071800052</v>
+        <v>8.803171169008889</v>
       </c>
       <c r="D20">
-        <v>8.604197929994106</v>
+        <v>6.606461183579787</v>
       </c>
       <c r="E20">
-        <v>10.06526382910161</v>
+        <v>6.854826098525639</v>
       </c>
       <c r="F20">
-        <v>44.65987163447094</v>
+        <v>46.50323112079779</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>36.01460203600157</v>
+        <v>33.77757863480164</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.2185827334672</v>
+        <v>14.00922592910783</v>
       </c>
       <c r="L20">
-        <v>10.42966294265956</v>
+        <v>7.954437150823143</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.24045608285906</v>
+        <v>17.20558037906102</v>
       </c>
       <c r="C21">
-        <v>5.559728309406191</v>
+        <v>9.365614977540924</v>
       </c>
       <c r="D21">
-        <v>8.614226344374893</v>
+        <v>6.595698895231231</v>
       </c>
       <c r="E21">
-        <v>10.06821654156514</v>
+        <v>7.011446475912731</v>
       </c>
       <c r="F21">
-        <v>45.18316481762339</v>
+        <v>48.54970609456659</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>36.28049809384135</v>
+        <v>34.94745807238537</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.35191534222234</v>
+        <v>14.93545435868804</v>
       </c>
       <c r="L21">
-        <v>10.4559479918032</v>
+        <v>8.249028594042834</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.3634870029962</v>
+        <v>17.8949100138339</v>
       </c>
       <c r="C22">
-        <v>5.725438409135882</v>
+        <v>9.722841229454934</v>
       </c>
       <c r="D22">
-        <v>8.620633578023391</v>
+        <v>6.58880898247472</v>
       </c>
       <c r="E22">
-        <v>10.0714336066257</v>
+        <v>7.116352457085422</v>
       </c>
       <c r="F22">
-        <v>45.52769683616779</v>
+        <v>49.87886880752107</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>36.45689187034045</v>
+        <v>35.71468433326397</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.44183203980072</v>
+        <v>15.52171251131967</v>
       </c>
       <c r="L22">
-        <v>10.47481195257578</v>
+        <v>8.442621214258279</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29755911430304</v>
+        <v>17.52898069687254</v>
       </c>
       <c r="C23">
-        <v>5.637652738418064</v>
+        <v>9.53310086628059</v>
       </c>
       <c r="D23">
-        <v>8.617227267956668</v>
+        <v>6.592472162529842</v>
       </c>
       <c r="E23">
-        <v>10.06959907422488</v>
+        <v>7.060127104514816</v>
       </c>
       <c r="F23">
-        <v>45.34360681924257</v>
+        <v>49.17022901488497</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>36.36251679958548</v>
+        <v>35.30495076618469</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.393596502061</v>
+        <v>15.21051621840606</v>
       </c>
       <c r="L23">
-        <v>10.46459068685415</v>
+        <v>8.339202354126865</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05389547528802</v>
+        <v>16.09877497469122</v>
       </c>
       <c r="C24">
-        <v>5.290780520355922</v>
+        <v>8.793796938878366</v>
       </c>
       <c r="D24">
-        <v>8.604031519944481</v>
+        <v>6.60663931999095</v>
       </c>
       <c r="E24">
-        <v>10.06523735659935</v>
+        <v>6.852308810423955</v>
       </c>
       <c r="F24">
-        <v>44.65136687718056</v>
+        <v>46.46964355155252</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>36.01030221919742</v>
+        <v>33.75850128300979</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.21645226680448</v>
+        <v>13.99375519451403</v>
       </c>
       <c r="L24">
-        <v>10.42926198578016</v>
+        <v>7.949640878719774</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.80536995359446</v>
+        <v>14.4565806414169</v>
       </c>
       <c r="C25">
-        <v>4.886144561423161</v>
+        <v>7.949093444722225</v>
       </c>
       <c r="D25">
-        <v>8.589157607797462</v>
+        <v>6.622455082226734</v>
       </c>
       <c r="E25">
-        <v>10.06608289690145</v>
+        <v>6.638938323612785</v>
       </c>
       <c r="F25">
-        <v>43.91800344213559</v>
+        <v>43.52266738293598</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>35.64248276612115</v>
+        <v>32.10184411790874</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.03814341453413</v>
+        <v>12.59507806428666</v>
       </c>
       <c r="L25">
-        <v>10.39847915149024</v>
+        <v>7.534477370884758</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17540809125538</v>
+        <v>24.57775772612854</v>
       </c>
       <c r="C2">
-        <v>7.283797348608763</v>
+        <v>23.62570705220842</v>
       </c>
       <c r="D2">
-        <v>6.634483854560133</v>
+        <v>5.064784450777695</v>
       </c>
       <c r="E2">
-        <v>6.491025030661475</v>
+        <v>29.27429048773482</v>
       </c>
       <c r="F2">
-        <v>41.32832819123951</v>
+        <v>40.62617151104586</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>3.197235073507184</v>
       </c>
       <c r="I2">
-        <v>30.89309692306671</v>
+        <v>3.305501832620886</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.48668042692174</v>
+        <v>25.26646192697896</v>
       </c>
       <c r="L2">
-        <v>7.233989640937335</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38835917175171</v>
+        <v>22.91149253713197</v>
       </c>
       <c r="C3">
-        <v>6.80476256432513</v>
+        <v>21.98461552483595</v>
       </c>
       <c r="D3">
-        <v>6.642843260339792</v>
+        <v>4.968419852721909</v>
       </c>
       <c r="E3">
-        <v>6.396504225817369</v>
+        <v>27.24246921124029</v>
       </c>
       <c r="F3">
-        <v>39.83022204615838</v>
+        <v>38.36800789772118</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.850767849656963</v>
       </c>
       <c r="I3">
-        <v>30.08214486193732</v>
+        <v>2.993984372174638</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.68451349070354</v>
+        <v>24.23816316485698</v>
       </c>
       <c r="L3">
-        <v>7.034226584333658</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89051379423899</v>
+        <v>21.82954438745708</v>
       </c>
       <c r="C4">
-        <v>6.496443412862034</v>
+        <v>20.92697344022459</v>
       </c>
       <c r="D4">
-        <v>6.64806887811655</v>
+        <v>4.905984248831676</v>
       </c>
       <c r="E4">
-        <v>6.341289738207842</v>
+        <v>25.9296118474942</v>
       </c>
       <c r="F4">
-        <v>38.90692856171457</v>
+        <v>36.92447697017371</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.632258131696725</v>
       </c>
       <c r="I4">
-        <v>29.588893033477</v>
+        <v>2.799055197171701</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.16622005340065</v>
+        <v>23.58646098161122</v>
       </c>
       <c r="L4">
-        <v>6.913745140167121</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68416068533391</v>
+        <v>21.37335018236414</v>
       </c>
       <c r="C5">
-        <v>6.367196513073151</v>
+        <v>20.49224701328034</v>
       </c>
       <c r="D5">
-        <v>6.650220397384079</v>
+        <v>4.87367347778631</v>
       </c>
       <c r="E5">
-        <v>6.319499043233236</v>
+        <v>25.37741726369573</v>
       </c>
       <c r="F5">
-        <v>38.53016274641868</v>
+        <v>36.28388278233177</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.54132806410529</v>
       </c>
       <c r="I5">
-        <v>29.38917385571497</v>
+        <v>2.718827833726139</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.94844973912994</v>
+        <v>23.2853798571293</v>
       </c>
       <c r="L5">
-        <v>6.865237735612792</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64969255836558</v>
+        <v>21.29625282542791</v>
       </c>
       <c r="C6">
-        <v>6.345516558908582</v>
+        <v>20.43029268017481</v>
       </c>
       <c r="D6">
-        <v>6.650578949476241</v>
+        <v>4.860884428682155</v>
       </c>
       <c r="E6">
-        <v>6.315923564043678</v>
+        <v>25.28401570262119</v>
       </c>
       <c r="F6">
-        <v>38.46758098275192</v>
+        <v>36.12976221642069</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.52568471632959</v>
       </c>
       <c r="I6">
-        <v>29.35609159759519</v>
+        <v>2.705870236014556</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.911890464776414</v>
+        <v>23.19769083901729</v>
       </c>
       <c r="L6">
-        <v>6.857220033537464</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8877446297488</v>
+        <v>21.82224725486657</v>
       </c>
       <c r="C7">
-        <v>6.494714980279692</v>
+        <v>20.95042887265928</v>
       </c>
       <c r="D7">
-        <v>6.648097806713864</v>
+        <v>4.885485421481881</v>
       </c>
       <c r="E7">
-        <v>6.34099298830544</v>
+        <v>25.92032210357514</v>
       </c>
       <c r="F7">
-        <v>38.90184896073377</v>
+        <v>36.79015915335398</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.629813992640046</v>
       </c>
       <c r="I7">
-        <v>29.58619419756604</v>
+        <v>2.798657487293574</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.16330980252068</v>
+        <v>23.48152795289418</v>
       </c>
       <c r="L7">
-        <v>6.913088506037181</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9071625544526</v>
+        <v>24.01376366741238</v>
       </c>
       <c r="C8">
-        <v>7.121547127764893</v>
+        <v>23.1055974940896</v>
       </c>
       <c r="D8">
-        <v>6.637346069747542</v>
+        <v>5.006122224816605</v>
       </c>
       <c r="E8">
-        <v>6.457848864937082</v>
+        <v>28.58463185177697</v>
       </c>
       <c r="F8">
-        <v>40.81269406724839</v>
+        <v>39.70369215703696</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.077348149797982</v>
       </c>
       <c r="I8">
-        <v>30.61257238356583</v>
+        <v>3.198775486492875</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.21538772176421</v>
+        <v>24.78859003233993</v>
       </c>
       <c r="L8">
-        <v>7.164685274348927</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.02345831129964</v>
+        <v>27.85266672729417</v>
       </c>
       <c r="C9">
-        <v>8.240200521370387</v>
+        <v>26.89662826046382</v>
       </c>
       <c r="D9">
-        <v>6.617063274679379</v>
+        <v>5.252090369639964</v>
       </c>
       <c r="E9">
-        <v>6.709381729512742</v>
+        <v>33.30404368485233</v>
       </c>
       <c r="F9">
-        <v>44.51960364872541</v>
+        <v>45.15987186488595</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.914317062003225</v>
       </c>
       <c r="I9">
-        <v>32.65830744459729</v>
+        <v>3.958089497966796</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>13.07814814521939</v>
+        <v>27.35377897675718</v>
       </c>
       <c r="L9">
-        <v>7.673590639757283</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.49456826980763</v>
+        <v>30.38950087143714</v>
       </c>
       <c r="C10">
-        <v>8.998037708849679</v>
+        <v>29.35695386235092</v>
       </c>
       <c r="D10">
-        <v>6.602747971172188</v>
+        <v>5.314188614169538</v>
       </c>
       <c r="E10">
-        <v>6.907858627791515</v>
+        <v>35.58551020335452</v>
       </c>
       <c r="F10">
-        <v>47.20542701488769</v>
+        <v>48.29710722147784</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>4.461551744940839</v>
       </c>
       <c r="I10">
-        <v>34.17735321699468</v>
+        <v>4.48524031280676</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>14.33057457177136</v>
+        <v>28.70101064827428</v>
       </c>
       <c r="L10">
-        <v>8.05500717382824</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.13634521626491</v>
+        <v>31.39414660089929</v>
       </c>
       <c r="C11">
-        <v>9.329783062819855</v>
+        <v>29.52874251220619</v>
       </c>
       <c r="D11">
-        <v>6.596388187925214</v>
+        <v>4.573590619021572</v>
       </c>
       <c r="E11">
-        <v>7.001149982012629</v>
+        <v>29.03220015018726</v>
       </c>
       <c r="F11">
-        <v>48.41758267118693</v>
+        <v>44.96095342698647</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>4.794212924472378</v>
       </c>
       <c r="I11">
-        <v>34.87149988504181</v>
+        <v>4.568504990990762</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>14.87656303956979</v>
+        <v>25.85750410253659</v>
       </c>
       <c r="L11">
-        <v>8.229876874880105</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.3755592427788</v>
+        <v>31.7354404597553</v>
       </c>
       <c r="C12">
-        <v>9.45362195114687</v>
+        <v>29.14543513349508</v>
       </c>
       <c r="D12">
-        <v>6.594004310161694</v>
+        <v>4.089388517707054</v>
       </c>
       <c r="E12">
-        <v>7.036913404937264</v>
+        <v>23.10073113068669</v>
       </c>
       <c r="F12">
-        <v>48.87516628004396</v>
+        <v>41.63166134709396</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>5.534766635421007</v>
       </c>
       <c r="I12">
-        <v>35.1348073481359</v>
+        <v>4.544298044068366</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>15.08003089206691</v>
+        <v>23.31169132617033</v>
       </c>
       <c r="L12">
-        <v>8.296278052276577</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32420752377809</v>
+        <v>31.59870971615016</v>
       </c>
       <c r="C13">
-        <v>9.427029022433803</v>
+        <v>28.33646817262205</v>
       </c>
       <c r="D13">
-        <v>6.594516590052457</v>
+        <v>3.788789057548391</v>
       </c>
       <c r="E13">
-        <v>7.029191623677949</v>
+        <v>17.18543728731622</v>
       </c>
       <c r="F13">
-        <v>48.77668122688696</v>
+        <v>37.85384938070533</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.485667025238326</v>
       </c>
       <c r="I13">
-        <v>35.07807904714548</v>
+        <v>4.436326151192495</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.03635442760354</v>
+        <v>20.66470329191435</v>
       </c>
       <c r="L13">
-        <v>8.281969407579217</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15610109990618</v>
+        <v>31.28710949213173</v>
       </c>
       <c r="C14">
-        <v>9.34000664091665</v>
+        <v>27.57700821895189</v>
       </c>
       <c r="D14">
-        <v>6.596191559406448</v>
+        <v>3.705585180399821</v>
       </c>
       <c r="E14">
-        <v>7.004083488202119</v>
+        <v>13.12732074934028</v>
       </c>
       <c r="F14">
-        <v>48.45525710219832</v>
+        <v>34.93222661988781</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.24249425074018</v>
       </c>
       <c r="I14">
-        <v>34.89315322999169</v>
+        <v>4.325626232814763</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>14.89336754295405</v>
+        <v>18.7368925839015</v>
       </c>
       <c r="L14">
-        <v>8.235336142883904</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05263870466603</v>
+        <v>31.10671384406162</v>
       </c>
       <c r="C15">
-        <v>9.286472991008871</v>
+        <v>27.30548321177557</v>
       </c>
       <c r="D15">
-        <v>6.597220789687308</v>
+        <v>3.705762816532152</v>
       </c>
       <c r="E15">
-        <v>6.988760982624013</v>
+        <v>12.1414362873523</v>
       </c>
       <c r="F15">
-        <v>48.25818864815087</v>
+        <v>34.07629088141186</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.414525645066113</v>
       </c>
       <c r="I15">
-        <v>34.77993987850381</v>
+        <v>4.279345015259466</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>14.80536001129724</v>
+        <v>18.21315569485082</v>
       </c>
       <c r="L15">
-        <v>8.206795342490842</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45208548983965</v>
+        <v>30.09637867431654</v>
       </c>
       <c r="C16">
-        <v>8.976102698414007</v>
+        <v>26.41932052529146</v>
       </c>
       <c r="D16">
-        <v>6.603166871524947</v>
+        <v>3.738720967462462</v>
       </c>
       <c r="E16">
-        <v>6.901822544678458</v>
+        <v>11.85518724062602</v>
       </c>
       <c r="F16">
-        <v>47.12601021272361</v>
+        <v>33.19524498523532</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.105959423374449</v>
       </c>
       <c r="I16">
-        <v>34.13205123229232</v>
+        <v>4.080945935386539</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>14.29442583306293</v>
+        <v>18.01828496165221</v>
       </c>
       <c r="L16">
-        <v>8.043605023641554</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.0767274180789</v>
+        <v>29.47592708923428</v>
       </c>
       <c r="C17">
-        <v>8.782427480633469</v>
+        <v>26.1493770470726</v>
       </c>
       <c r="D17">
-        <v>6.606855307310211</v>
+        <v>3.783770420471912</v>
       </c>
       <c r="E17">
-        <v>6.849259958936911</v>
+        <v>13.84591411955654</v>
       </c>
       <c r="F17">
-        <v>46.42893127568571</v>
+        <v>34.1370437838686</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.409397065545569</v>
       </c>
       <c r="I17">
-        <v>33.73538274354711</v>
+        <v>3.985635723721856</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.97499016043259</v>
+        <v>18.90700431421365</v>
       </c>
       <c r="L17">
-        <v>7.943828985133317</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85823989897269</v>
+        <v>29.13839530149744</v>
       </c>
       <c r="C18">
-        <v>8.669801563090557</v>
+        <v>26.3780574696532</v>
       </c>
       <c r="D18">
-        <v>6.608990964825323</v>
+        <v>3.957574033177444</v>
       </c>
       <c r="E18">
-        <v>6.81930963960755</v>
+        <v>18.35887278810334</v>
       </c>
       <c r="F18">
-        <v>46.02708127473532</v>
+        <v>36.85348967963254</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.392681675312675</v>
       </c>
       <c r="I18">
-        <v>33.50752181021399</v>
+        <v>3.974359283795308</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.78901573331409</v>
+        <v>20.92626746148102</v>
       </c>
       <c r="L18">
-        <v>7.88656889459467</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78381490041855</v>
+        <v>29.06329236035798</v>
       </c>
       <c r="C19">
-        <v>8.631454894637452</v>
+        <v>27.04144987237161</v>
       </c>
       <c r="D19">
-        <v>6.609716423365828</v>
+        <v>4.347687356694732</v>
       </c>
       <c r="E19">
-        <v>6.809217376012948</v>
+        <v>24.65228358032683</v>
       </c>
       <c r="F19">
-        <v>45.89086827578395</v>
+        <v>40.57651127359812</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>4.466466609303997</v>
       </c>
       <c r="I19">
-        <v>33.43042274326676</v>
+        <v>4.046606015976241</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.72565893359143</v>
+        <v>23.57611079436771</v>
       </c>
       <c r="L19">
-        <v>7.867204244631763</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11695222303781</v>
+        <v>29.73705218945523</v>
       </c>
       <c r="C20">
-        <v>8.803171169008889</v>
+        <v>28.78841063955589</v>
       </c>
       <c r="D20">
-        <v>6.606461183579787</v>
+        <v>5.236744873601262</v>
       </c>
       <c r="E20">
-        <v>6.854826098525639</v>
+        <v>34.95109661882595</v>
       </c>
       <c r="F20">
-        <v>46.50323112079779</v>
+        <v>47.15045590244139</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>4.312723564431873</v>
       </c>
       <c r="I20">
-        <v>33.77757863480164</v>
+        <v>4.34680406090221</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>14.00922592910783</v>
+        <v>28.06775465391914</v>
       </c>
       <c r="L20">
-        <v>7.954437150823143</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.20558037906102</v>
+        <v>31.61825559022602</v>
       </c>
       <c r="C21">
-        <v>9.365614977540924</v>
+        <v>30.76103329435546</v>
       </c>
       <c r="D21">
-        <v>6.595698895231231</v>
+        <v>5.438349763292833</v>
       </c>
       <c r="E21">
-        <v>7.011446475912731</v>
+        <v>38.00029524966166</v>
       </c>
       <c r="F21">
-        <v>48.54970609456659</v>
+        <v>50.38060748122459</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>4.799714025121084</v>
       </c>
       <c r="I21">
-        <v>34.94745807238537</v>
+        <v>4.778128240075001</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>14.93545435868804</v>
+        <v>29.73624331229472</v>
       </c>
       <c r="L21">
-        <v>8.249028594042834</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.8949100138339</v>
+        <v>32.79740097353102</v>
       </c>
       <c r="C22">
-        <v>9.722841229454934</v>
+        <v>31.93106976113874</v>
       </c>
       <c r="D22">
-        <v>6.58880898247472</v>
+        <v>5.543542251529782</v>
       </c>
       <c r="E22">
-        <v>7.116352457085422</v>
+        <v>39.48661175250601</v>
       </c>
       <c r="F22">
-        <v>49.87886880752107</v>
+        <v>52.28518920709082</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>5.093439506043415</v>
       </c>
       <c r="I22">
-        <v>35.71468433326397</v>
+        <v>5.050348146782492</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>15.52171251131967</v>
+        <v>30.71179611668085</v>
       </c>
       <c r="L22">
-        <v>8.442621214258279</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52898069687254</v>
+        <v>32.1737766242289</v>
       </c>
       <c r="C23">
-        <v>9.53310086628059</v>
+        <v>31.28584193392897</v>
       </c>
       <c r="D23">
-        <v>6.592472162529842</v>
+        <v>5.509372863784449</v>
       </c>
       <c r="E23">
-        <v>7.060127104514816</v>
+        <v>38.70005515291278</v>
       </c>
       <c r="F23">
-        <v>49.17022901488497</v>
+        <v>51.38545957562659</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>4.938202848955714</v>
       </c>
       <c r="I23">
-        <v>35.30495076618469</v>
+        <v>4.905200195374588</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>15.21051621840606</v>
+        <v>30.28964013895604</v>
       </c>
       <c r="L23">
-        <v>8.339202354126865</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09877497469122</v>
+        <v>29.71638619528099</v>
       </c>
       <c r="C24">
-        <v>8.793796938878366</v>
+        <v>28.80411940462198</v>
       </c>
       <c r="D24">
-        <v>6.60663931999095</v>
+        <v>5.34146367637794</v>
       </c>
       <c r="E24">
-        <v>6.852308810423955</v>
+        <v>35.61953621898887</v>
       </c>
       <c r="F24">
-        <v>46.46964355155252</v>
+        <v>47.70689800477732</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>4.343837831788984</v>
       </c>
       <c r="I24">
-        <v>33.75850128300979</v>
+        <v>4.354138867950918</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.99375519451403</v>
+        <v>28.5048359660338</v>
       </c>
       <c r="L24">
-        <v>7.949640878719774</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.4565806414169</v>
+        <v>26.86035450210521</v>
       </c>
       <c r="C25">
-        <v>7.949093444722225</v>
+        <v>25.95482910300781</v>
       </c>
       <c r="D25">
-        <v>6.622455082226734</v>
+        <v>5.15355236834709</v>
       </c>
       <c r="E25">
-        <v>6.638938323612785</v>
+        <v>32.07690537323104</v>
       </c>
       <c r="F25">
-        <v>43.52266738293598</v>
+        <v>43.53917272051526</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.689900320384826</v>
       </c>
       <c r="I25">
-        <v>32.10184411790874</v>
+        <v>3.755028569690818</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.59507806428666</v>
+        <v>26.51489906617206</v>
       </c>
       <c r="L25">
-        <v>7.534477370884758</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57775772612854</v>
+        <v>24.57946815555862</v>
       </c>
       <c r="C2">
-        <v>23.62570705220842</v>
+        <v>25.01602885156923</v>
       </c>
       <c r="D2">
-        <v>5.064784450777695</v>
+        <v>4.127304722012277</v>
       </c>
       <c r="E2">
-        <v>29.27429048773482</v>
+        <v>29.26610890486119</v>
       </c>
       <c r="F2">
-        <v>40.62617151104586</v>
+        <v>34.49723729097953</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.197235073507184</v>
+        <v>3.192113666727485</v>
       </c>
       <c r="I2">
-        <v>3.305501832620886</v>
+        <v>3.309669885235714</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>25.26646192697896</v>
+        <v>20.22953284990091</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.07552346926955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.29713952188935</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.91149253713197</v>
+        <v>22.93547661137514</v>
       </c>
       <c r="C3">
-        <v>21.98461552483595</v>
+        <v>23.24469025731191</v>
       </c>
       <c r="D3">
-        <v>4.968419852721909</v>
+        <v>4.132770558201839</v>
       </c>
       <c r="E3">
-        <v>27.24246921124029</v>
+        <v>27.26697166841483</v>
       </c>
       <c r="F3">
-        <v>38.36800789772118</v>
+        <v>32.85281543387757</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.850767849656963</v>
+        <v>2.866290279305436</v>
       </c>
       <c r="I3">
-        <v>2.993984372174638</v>
+        <v>3.042191972812907</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>24.23816316485698</v>
+        <v>19.74579652273917</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.90280088757298</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.68035200155003</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.82954438745708</v>
+        <v>21.8668437394556</v>
       </c>
       <c r="C4">
-        <v>20.92697344022459</v>
+        <v>22.10075625697737</v>
       </c>
       <c r="D4">
-        <v>4.905984248831676</v>
+        <v>4.133853454260812</v>
       </c>
       <c r="E4">
-        <v>25.9296118474942</v>
+        <v>25.97386101897759</v>
       </c>
       <c r="F4">
-        <v>36.92447697017371</v>
+        <v>31.80675450381957</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.632258131696725</v>
+        <v>2.660482301965813</v>
       </c>
       <c r="I4">
-        <v>2.799055197171701</v>
+        <v>2.874711569246777</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>23.58646098161122</v>
+        <v>19.44157158549255</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.78544814875172</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.31127911607211</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.37335018236414</v>
+        <v>21.41606062971694</v>
       </c>
       <c r="C5">
-        <v>20.49224701328034</v>
+        <v>21.62769952857617</v>
       </c>
       <c r="D5">
-        <v>4.87367347778631</v>
+        <v>4.130514089807258</v>
       </c>
       <c r="E5">
-        <v>25.37741726369573</v>
+        <v>25.42976956166076</v>
       </c>
       <c r="F5">
-        <v>36.28388278233177</v>
+        <v>31.34094824243779</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.54132806410529</v>
+        <v>2.574811844542147</v>
       </c>
       <c r="I5">
-        <v>2.718827833726139</v>
+        <v>2.806118012527927</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>23.2853798571293</v>
+        <v>19.29272706222282</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.71704572918308</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.14640778497066</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.29625282542791</v>
+        <v>21.33991453712173</v>
       </c>
       <c r="C6">
-        <v>20.43029268017481</v>
+        <v>21.55734883768493</v>
       </c>
       <c r="D6">
-        <v>4.860884428682155</v>
+        <v>4.126019829468681</v>
       </c>
       <c r="E6">
-        <v>25.28401570262119</v>
+        <v>25.33783127304352</v>
       </c>
       <c r="F6">
-        <v>36.12976221642069</v>
+        <v>31.2256089304577</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.52568471632959</v>
+        <v>2.560124098587721</v>
       </c>
       <c r="I6">
-        <v>2.705870236014556</v>
+        <v>2.795539051978452</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>23.19769083901729</v>
+        <v>19.23972830182327</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.68390827127725</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.09797999556885</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82224725486657</v>
+        <v>21.85978132661106</v>
       </c>
       <c r="C7">
-        <v>20.95042887265928</v>
+        <v>22.11854983803607</v>
       </c>
       <c r="D7">
-        <v>4.885485421481881</v>
+        <v>4.123238740868763</v>
       </c>
       <c r="E7">
-        <v>25.92032210357514</v>
+        <v>25.96501669775499</v>
       </c>
       <c r="F7">
-        <v>36.79015915335398</v>
+        <v>31.70005951482458</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.629813992640046</v>
+        <v>2.658333165881384</v>
       </c>
       <c r="I7">
-        <v>2.798657487293574</v>
+        <v>2.875627143248379</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>23.48152795289418</v>
+        <v>19.36343827688957</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.72664446956178</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.25111946923403</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.01376366741238</v>
+        <v>24.02350420182267</v>
       </c>
       <c r="C8">
-        <v>23.1055974940896</v>
+        <v>24.44607821793115</v>
       </c>
       <c r="D8">
-        <v>5.006122224816605</v>
+        <v>4.116137420114755</v>
       </c>
       <c r="E8">
-        <v>28.58463185177697</v>
+        <v>28.58830355356505</v>
       </c>
       <c r="F8">
-        <v>39.70369215703696</v>
+        <v>33.81321578397918</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.077348149797982</v>
+        <v>3.079657130828878</v>
       </c>
       <c r="I8">
-        <v>3.198775486492875</v>
+        <v>3.219545744647898</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>24.78859003233993</v>
+        <v>19.96724966553197</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.94632221931358</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.00734095029649</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.85266672729417</v>
+        <v>27.80330323678741</v>
       </c>
       <c r="C9">
-        <v>26.89662826046382</v>
+        <v>28.53265223468482</v>
       </c>
       <c r="D9">
-        <v>5.252090369639964</v>
+        <v>4.102080509759558</v>
       </c>
       <c r="E9">
-        <v>33.30404368485233</v>
+        <v>33.22220151000765</v>
       </c>
       <c r="F9">
-        <v>45.15987186488595</v>
+        <v>37.82502663127656</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.914317062003225</v>
+        <v>3.864466298044638</v>
       </c>
       <c r="I9">
-        <v>3.958089497966796</v>
+        <v>3.869158931483041</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>27.35377897675718</v>
+        <v>21.22436817959171</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.38473530000225</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.64996472696123</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.38950087143714</v>
+        <v>30.29479725484311</v>
       </c>
       <c r="C10">
-        <v>29.35695386235092</v>
+        <v>31.15094792833079</v>
       </c>
       <c r="D10">
-        <v>5.314188614169538</v>
+        <v>4.035314042033869</v>
       </c>
       <c r="E10">
-        <v>35.58551020335452</v>
+        <v>35.43892797987164</v>
       </c>
       <c r="F10">
-        <v>48.29710722147784</v>
+        <v>40.13952077213017</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.461551744940839</v>
+        <v>4.374783555520875</v>
       </c>
       <c r="I10">
-        <v>4.48524031280676</v>
+        <v>4.320509618119877</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>28.70101064827428</v>
+        <v>21.81370527678298</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.44066987035374</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.6317401102581</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.39414660089929</v>
+        <v>31.29850601223159</v>
       </c>
       <c r="C11">
-        <v>29.52874251220619</v>
+        <v>31.16388199413719</v>
       </c>
       <c r="D11">
-        <v>4.573590619021572</v>
+        <v>3.74118801893484</v>
       </c>
       <c r="E11">
-        <v>29.03220015018726</v>
+        <v>28.87871907763308</v>
       </c>
       <c r="F11">
-        <v>44.96095342698647</v>
+        <v>37.55735196321902</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.794212924472378</v>
+        <v>4.717539880904341</v>
       </c>
       <c r="I11">
-        <v>4.568504990990762</v>
+        <v>4.402538978475419</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>25.85750410253659</v>
+        <v>19.67783551644679</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.76219103323726</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.17183870944763</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.7354404597553</v>
+        <v>31.64632866311657</v>
       </c>
       <c r="C12">
-        <v>29.14543513349508</v>
+        <v>30.61818092662922</v>
       </c>
       <c r="D12">
-        <v>4.089388517707054</v>
+        <v>3.663360661163077</v>
       </c>
       <c r="E12">
-        <v>23.10073113068669</v>
+        <v>22.94635924393289</v>
       </c>
       <c r="F12">
-        <v>41.63166134709396</v>
+        <v>34.99986865375263</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.534766635421007</v>
+        <v>5.476121334916097</v>
       </c>
       <c r="I12">
-        <v>4.544298044068366</v>
+        <v>4.388095040640212</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.31169132617033</v>
+        <v>17.86126064210423</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.44389583011592</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.79907402745529</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.59870971615016</v>
+        <v>31.5222883796141</v>
       </c>
       <c r="C13">
-        <v>28.33646817262205</v>
+        <v>29.62244463119933</v>
       </c>
       <c r="D13">
-        <v>3.788789057548391</v>
+        <v>3.731134514921469</v>
       </c>
       <c r="E13">
-        <v>17.18543728731622</v>
+        <v>17.03339696892014</v>
       </c>
       <c r="F13">
-        <v>37.85384938070533</v>
+        <v>32.10694423897984</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.485667025238326</v>
+        <v>6.445011677223106</v>
       </c>
       <c r="I13">
-        <v>4.436326151192495</v>
+        <v>4.300533578364109</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>20.66470329191435</v>
+        <v>16.05835962384371</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.23290301353162</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.30277250202088</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.28710949213173</v>
+        <v>31.22183430725991</v>
       </c>
       <c r="C14">
-        <v>27.57700821895189</v>
+        <v>28.71670879770431</v>
       </c>
       <c r="D14">
-        <v>3.705585180399821</v>
+        <v>3.855591068313224</v>
       </c>
       <c r="E14">
-        <v>13.12732074934028</v>
+        <v>12.97583639611399</v>
       </c>
       <c r="F14">
-        <v>34.93222661988781</v>
+        <v>29.8723834969161</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.24249425074018</v>
+        <v>7.212561020631555</v>
       </c>
       <c r="I14">
-        <v>4.325626232814763</v>
+        <v>4.208663987388176</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>18.7368925839015</v>
+        <v>14.79120575950329</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.42638545850966</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.18003983086874</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.10671384406162</v>
+        <v>31.04568046842749</v>
       </c>
       <c r="C15">
-        <v>27.30548321177557</v>
+        <v>28.40209842540923</v>
       </c>
       <c r="D15">
-        <v>3.705762816532152</v>
+        <v>3.897045839837457</v>
       </c>
       <c r="E15">
-        <v>12.1414362873523</v>
+        <v>11.9928122848257</v>
       </c>
       <c r="F15">
-        <v>34.07629088141186</v>
+        <v>29.21910048004141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.414525645066113</v>
+        <v>7.387510577411943</v>
       </c>
       <c r="I15">
-        <v>4.279345015259466</v>
+        <v>4.170070230545685</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>18.21315569485082</v>
+        <v>14.46274941600675</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.23062422616444</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.862783629222086</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.09637867431654</v>
+        <v>30.05080606510221</v>
       </c>
       <c r="C16">
-        <v>26.41932052529146</v>
+        <v>27.46775929865425</v>
       </c>
       <c r="D16">
-        <v>3.738720967462462</v>
+        <v>3.892947281892735</v>
       </c>
       <c r="E16">
-        <v>11.85518724062602</v>
+        <v>11.74216774549948</v>
       </c>
       <c r="F16">
-        <v>33.19524498523532</v>
+        <v>28.57621940825262</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.105959423374449</v>
+        <v>7.085494655719399</v>
       </c>
       <c r="I16">
-        <v>4.080945935386539</v>
+        <v>3.999376127221759</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>18.01828496165221</v>
+        <v>14.48579242860926</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.35341753796708</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.66282807141177</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.47592708923428</v>
+        <v>29.43667232695977</v>
       </c>
       <c r="C17">
-        <v>26.1493770470726</v>
+        <v>27.24278841446815</v>
       </c>
       <c r="D17">
-        <v>3.783770420471912</v>
+        <v>3.816424752029981</v>
       </c>
       <c r="E17">
-        <v>13.84591411955654</v>
+        <v>13.75663007987814</v>
       </c>
       <c r="F17">
-        <v>34.1370437838686</v>
+        <v>29.3212739227367</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.409397065545569</v>
+        <v>6.389763052419697</v>
       </c>
       <c r="I17">
-        <v>3.985635723721856</v>
+        <v>3.915892076629908</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>18.90700431421365</v>
+        <v>15.17655707895954</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.88349561749267</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.11538086640087</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.13839530149744</v>
+        <v>29.09765635959141</v>
       </c>
       <c r="C18">
-        <v>26.3780574696532</v>
+        <v>27.60673879065198</v>
       </c>
       <c r="D18">
-        <v>3.957574033177444</v>
+        <v>3.732906327988562</v>
       </c>
       <c r="E18">
-        <v>18.35887278810334</v>
+        <v>18.27855127502116</v>
       </c>
       <c r="F18">
-        <v>36.85348967963254</v>
+        <v>31.41915551628743</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.392681675312675</v>
+        <v>5.367507693440532</v>
       </c>
       <c r="I18">
-        <v>3.974359283795308</v>
+        <v>3.901498617049844</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>20.92626746148102</v>
+        <v>16.5992654110084</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.90210533767783</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.21999461600642</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.06329236035798</v>
+        <v>29.01365465741152</v>
       </c>
       <c r="C19">
-        <v>27.04144987237161</v>
+        <v>28.4573931968684</v>
       </c>
       <c r="D19">
-        <v>4.347687356694732</v>
+        <v>3.753750891668238</v>
       </c>
       <c r="E19">
-        <v>24.65228358032683</v>
+        <v>24.56572955069903</v>
       </c>
       <c r="F19">
-        <v>40.57651127359812</v>
+        <v>34.27049766423917</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.466466609303997</v>
+        <v>4.426958433176615</v>
       </c>
       <c r="I19">
-        <v>4.046606015976241</v>
+        <v>3.95887443008168</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>23.57611079436771</v>
+        <v>18.42246994742045</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.19692898148219</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.67582842319812</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.73705218945523</v>
+        <v>29.65554368943035</v>
       </c>
       <c r="C20">
-        <v>28.78841063955589</v>
+        <v>30.52954045320482</v>
       </c>
       <c r="D20">
-        <v>5.236744873601262</v>
+        <v>4.02304666841628</v>
       </c>
       <c r="E20">
-        <v>34.95109661882595</v>
+        <v>34.82355331912373</v>
       </c>
       <c r="F20">
-        <v>47.15045590244139</v>
+        <v>39.27147558017543</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.312723564431873</v>
+        <v>4.236632829257045</v>
       </c>
       <c r="I20">
-        <v>4.34680406090221</v>
+        <v>4.206223317425136</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>28.06775465391914</v>
+        <v>21.44117321858464</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.27179252454069</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.20077727870496</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.61825559022602</v>
+        <v>31.49598243533826</v>
       </c>
       <c r="C21">
-        <v>30.76103329435546</v>
+        <v>32.65633558602401</v>
       </c>
       <c r="D21">
-        <v>5.438349763292833</v>
+        <v>4.036874652794521</v>
       </c>
       <c r="E21">
-        <v>38.00029524966166</v>
+        <v>37.81533776678925</v>
       </c>
       <c r="F21">
-        <v>50.38060748122459</v>
+        <v>41.68806600225333</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.799714025121084</v>
+        <v>4.690946033980523</v>
       </c>
       <c r="I21">
-        <v>4.778128240075001</v>
+        <v>4.572249280159278</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>29.73624331229472</v>
+        <v>22.3531421400563</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.63804164144949</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.32455855340841</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.79740097353102</v>
+        <v>32.64779031999269</v>
       </c>
       <c r="C22">
-        <v>31.93106976113874</v>
+        <v>33.91211792315478</v>
       </c>
       <c r="D22">
-        <v>5.543542251529782</v>
+        <v>4.035545975801909</v>
       </c>
       <c r="E22">
-        <v>39.48661175250601</v>
+        <v>39.26309666616616</v>
       </c>
       <c r="F22">
-        <v>52.28518920709082</v>
+        <v>43.11987022893792</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.093439506043415</v>
+        <v>4.963566080131724</v>
       </c>
       <c r="I22">
-        <v>5.050348146782492</v>
+        <v>4.801637675624565</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>30.71179611668085</v>
+        <v>22.88719978288611</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.82731896475946</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.01139619364487</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.1737766242289</v>
+        <v>32.03855124085062</v>
       </c>
       <c r="C23">
-        <v>31.28584193392897</v>
+        <v>33.22593454518145</v>
       </c>
       <c r="D23">
-        <v>5.509372863784449</v>
+        <v>4.047423970585363</v>
       </c>
       <c r="E23">
-        <v>38.70005515291278</v>
+        <v>38.49671612466138</v>
       </c>
       <c r="F23">
-        <v>51.38545957562659</v>
+        <v>42.44841696590782</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.938202848955714</v>
+        <v>4.819321056404922</v>
       </c>
       <c r="I23">
-        <v>4.905200195374588</v>
+        <v>4.677834726894821</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>30.28964013895604</v>
+        <v>22.67780233135486</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.78031939855401</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.70394346078958</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.71638619528099</v>
+        <v>29.63312447430355</v>
       </c>
       <c r="C24">
-        <v>28.80411940462198</v>
+        <v>30.57031003422729</v>
       </c>
       <c r="D24">
-        <v>5.34146367637794</v>
+        <v>4.07119558510371</v>
       </c>
       <c r="E24">
-        <v>35.61953621898887</v>
+        <v>35.48956595093279</v>
       </c>
       <c r="F24">
-        <v>47.70689800477732</v>
+        <v>39.70348631712172</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.343837831788984</v>
+        <v>4.266002380697421</v>
       </c>
       <c r="I24">
-        <v>4.354138867950918</v>
+        <v>4.209093269010262</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>28.5048359660338</v>
+        <v>21.76086830707683</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.50568392551084</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.44665375262057</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.86035450210521</v>
+        <v>26.82805784176322</v>
       </c>
       <c r="C25">
-        <v>25.95482910300781</v>
+        <v>27.50876224086507</v>
       </c>
       <c r="D25">
-        <v>5.15355236834709</v>
+        <v>4.090205802807087</v>
       </c>
       <c r="E25">
-        <v>32.07690537323104</v>
+        <v>32.01969741178812</v>
       </c>
       <c r="F25">
-        <v>43.53917272051526</v>
+        <v>36.61599218375803</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.689900320384826</v>
+        <v>3.654731687532721</v>
       </c>
       <c r="I25">
-        <v>3.755028569690818</v>
+        <v>3.697856705218074</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>26.51489906617206</v>
+        <v>20.76460798192211</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.18426221065455</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.1030045930338</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
